--- a/src/tmp/xlsx/200_processed_data.xlsx
+++ b/src/tmp/xlsx/200_processed_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,12 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>zona</t>
+          <t>zona_number</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>zona_letter</t>
         </is>
       </c>
     </row>
@@ -550,6 +555,11 @@
       <c r="O2" t="n">
         <v>19</v>
       </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -591,6 +601,11 @@
       <c r="O3" t="n">
         <v>19</v>
       </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -635,6 +650,11 @@
       </c>
       <c r="O4" t="n">
         <v>19</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -677,6 +697,11 @@
       <c r="O5" t="n">
         <v>19</v>
       </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -718,6 +743,11 @@
       <c r="O6" t="n">
         <v>19</v>
       </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -763,6 +793,11 @@
       <c r="O7" t="n">
         <v>19</v>
       </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -804,6 +839,11 @@
       <c r="O8" t="n">
         <v>19</v>
       </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -849,6 +889,11 @@
       <c r="O9" t="n">
         <v>19</v>
       </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -894,6 +939,11 @@
       <c r="O10" t="n">
         <v>19</v>
       </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -935,6 +985,11 @@
       <c r="O11" t="n">
         <v>19</v>
       </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -976,6 +1031,11 @@
       <c r="O12" t="n">
         <v>19</v>
       </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1017,6 +1077,11 @@
       <c r="O13" t="n">
         <v>19</v>
       </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1058,6 +1123,11 @@
       <c r="O14" t="n">
         <v>19</v>
       </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1095,6 +1165,11 @@
       <c r="O15" t="n">
         <v>19</v>
       </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1136,6 +1211,11 @@
       <c r="O16" t="n">
         <v>19</v>
       </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1177,6 +1257,11 @@
       <c r="O17" t="n">
         <v>19</v>
       </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1218,6 +1303,11 @@
       <c r="O18" t="n">
         <v>19</v>
       </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1259,6 +1349,11 @@
       <c r="O19" t="n">
         <v>19</v>
       </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1300,6 +1395,11 @@
       <c r="O20" t="n">
         <v>19</v>
       </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1341,6 +1441,11 @@
       <c r="O21" t="n">
         <v>19</v>
       </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1386,6 +1491,11 @@
       <c r="O22" t="n">
         <v>19</v>
       </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1427,6 +1537,11 @@
       <c r="O23" t="n">
         <v>19</v>
       </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1468,6 +1583,11 @@
       <c r="O24" t="n">
         <v>19</v>
       </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1509,6 +1629,11 @@
       <c r="O25" t="n">
         <v>19</v>
       </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1550,6 +1675,11 @@
       <c r="O26" t="n">
         <v>19</v>
       </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1594,6 +1724,11 @@
       </c>
       <c r="O27" t="n">
         <v>19</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1636,6 +1771,11 @@
       <c r="O28" t="n">
         <v>19</v>
       </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1677,6 +1817,11 @@
       <c r="O29" t="n">
         <v>19</v>
       </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1718,6 +1863,11 @@
       <c r="O30" t="n">
         <v>19</v>
       </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1759,6 +1909,11 @@
       <c r="O31" t="n">
         <v>19</v>
       </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1800,6 +1955,11 @@
       <c r="O32" t="n">
         <v>19</v>
       </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1841,6 +2001,11 @@
       <c r="O33" t="n">
         <v>19</v>
       </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1882,6 +2047,11 @@
       <c r="O34" t="n">
         <v>19</v>
       </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1919,6 +2089,11 @@
       <c r="O35" t="n">
         <v>19</v>
       </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
